--- a/bsd-api-dms-order/sample_Order_File_Template.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achma\Documents\workspace-spring-tool-suite-4-4.7.1.RELEASE\eblo-api-psm-product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEB0055-82B0-4557-95CB-DA9BAA69F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41B287-5B2D-4EC1-95CA-6A40F9836074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06456F1D-068E-4944-8772-A477DDA719E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06456F1D-068E-4944-8772-A477DDA719E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="120">
   <si>
     <t>Row</t>
   </si>
@@ -127,9 +131,6 @@
     <t/>
   </si>
   <si>
-    <t>Rp 100.000</t>
-  </si>
-  <si>
     <t>Yuni Apriyani</t>
   </si>
   <si>
@@ -179,9 +180,6 @@
   </si>
   <si>
     <t>A55-7</t>
-  </si>
-  <si>
-    <t>18500</t>
   </si>
   <si>
     <t>Leonard</t>
@@ -212,9 +210,6 @@
     <t>A27-10</t>
   </si>
   <si>
-    <t>220000</t>
-  </si>
-  <si>
     <t>levina dermawan</t>
   </si>
   <si>
@@ -243,9 +238,6 @@
     <t>EA6-1</t>
   </si>
   <si>
-    <t>99000</t>
-  </si>
-  <si>
     <t>Melda Apriani</t>
   </si>
   <si>
@@ -271,9 +263,6 @@
     <t>2105180TT2B3UX</t>
   </si>
   <si>
-    <t>Rp 140.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etik Nur Safitri </t>
   </si>
   <si>
@@ -296,9 +285,6 @@
   </si>
   <si>
     <t>A49-4</t>
-  </si>
-  <si>
-    <t>47700</t>
   </si>
   <si>
     <t>deden trilaksana</t>
@@ -324,9 +310,6 @@
   </si>
   <si>
     <t>INV/20210518/MPL/1252081609</t>
-  </si>
-  <si>
-    <t>27000</t>
   </si>
   <si>
     <t>Ninda Ayu</t>
@@ -788,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA99E8-4F98-4810-972F-0BFAC7035D4A}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -799,11 +782,11 @@
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -844,57 +827,54 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -918,7 +898,7 @@
         <v>100000169</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
@@ -929,23 +909,23 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100000</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2">
         <v>100000</v>
       </c>
-      <c r="S2">
-        <v>100000</v>
+      <c r="S2" t="s">
+        <v>31</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -954,33 +934,30 @@
         <v>33</v>
       </c>
       <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
       </c>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -996,43 +973,43 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
       </c>
       <c r="I3">
         <v>131170177</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>8809612842280</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100000</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
       <c r="R3">
         <v>100000</v>
       </c>
-      <c r="S3">
-        <v>100000</v>
+      <c r="S3" t="s">
+        <v>39</v>
       </c>
       <c r="T3" t="s">
         <v>40</v>
@@ -1041,36 +1018,33 @@
         <v>41</v>
       </c>
       <c r="V3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="s">
         <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
       </c>
       <c r="AA3" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D11" si="0">IF(H4&lt;&gt;H3,D3+1,D3)</f>
@@ -1083,81 +1057,78 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4">
         <v>131171042</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>8809612864220</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>18500</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
       <c r="R4">
         <v>18500</v>
       </c>
-      <c r="S4">
-        <v>18500</v>
+      <c r="S4" t="s">
+        <v>48</v>
       </c>
       <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
         <v>50</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
         <v>51</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>52</v>
       </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -1170,81 +1141,78 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>131171094</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>8809612864725</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>58</v>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>220000</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
       <c r="R5">
         <v>220000</v>
       </c>
-      <c r="S5">
-        <v>220000</v>
+      <c r="S5" t="s">
+        <v>56</v>
       </c>
       <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="s">
         <v>59</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" t="s">
         <v>60</v>
       </c>
-      <c r="V5" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -1257,78 +1225,75 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>131171317</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>8809612871334</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>67</v>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>99000</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>99000</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
       </c>
       <c r="R6">
         <v>99000</v>
       </c>
-      <c r="S6">
-        <v>99000</v>
+      <c r="S6" t="s">
+        <v>64</v>
       </c>
       <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="s">
         <v>68</v>
       </c>
-      <c r="U6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" t="s">
-        <v>70</v>
-      </c>
-      <c r="W6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1344,16 +1309,16 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I7">
         <v>131171582</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
@@ -1364,32 +1329,32 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>75</v>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>140000</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
       <c r="R7">
         <v>140000</v>
       </c>
-      <c r="S7">
-        <v>140000</v>
+      <c r="S7" t="s">
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s">
         <v>30</v>
@@ -1401,24 +1366,21 @@
         <v>30</v>
       </c>
       <c r="Z7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1431,52 +1393,52 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>131172551</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>8809652896106</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>84</v>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>47700</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>47700</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
       </c>
       <c r="R8">
         <v>47700</v>
       </c>
-      <c r="S8">
-        <v>47700</v>
+      <c r="S8" t="s">
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s">
         <v>30</v>
@@ -1488,24 +1450,21 @@
         <v>30</v>
       </c>
       <c r="Z8" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -1518,16 +1477,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>131190118</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>8809612858656</v>
@@ -1538,32 +1497,32 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
-        <v>92</v>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>27000</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
       </c>
       <c r="R9">
         <v>27000</v>
       </c>
-      <c r="S9">
-        <v>27000</v>
+      <c r="S9" t="s">
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
         <v>30</v>
@@ -1575,24 +1534,21 @@
         <v>30</v>
       </c>
       <c r="Z9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="AA9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1605,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>609460956205896</v>
@@ -1614,7 +1570,7 @@
         <v>100000169</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
         <v>29</v>
@@ -1626,60 +1582,57 @@
         <v>1</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>100000</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>100000</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
       </c>
       <c r="R10">
         <v>100000</v>
       </c>
-      <c r="S10">
-        <v>100000</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10">
+      <c r="S10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10">
         <v>62081358951486</v>
       </c>
-      <c r="V10" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+      <c r="U10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1692,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>605093880549536</v>
@@ -1701,7 +1654,7 @@
         <v>100000169</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
@@ -1713,49 +1666,46 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>100000</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100000</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
       </c>
       <c r="R11">
         <v>100000</v>
       </c>
-      <c r="S11">
-        <v>100000</v>
-      </c>
-      <c r="T11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11">
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11">
         <v>6208121865946</v>
       </c>
-      <c r="V11" t="s">
-        <v>109</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>103</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AA11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
